--- a/src/analysis_examples/circadb/results_lomb/cosinor_10427997_ankrd33b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10427997_ankrd33b_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22073957777191805, 0.32479394728462935]</t>
+          <t>[0.22024986292700238, 0.325283662129545]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.176041734638147e-10</v>
+        <v>4.941203002317707e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>4.176041734638147e-10</v>
+        <v>4.941203002317707e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3396316382259235</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.5283158816847697, -0.1509473947670772]</t>
+          <t>[-0.5408948312486928, -0.13836844520315417]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001198213663897718</v>
+        <v>0.002085839477643292</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001198213663897718</v>
+        <v>0.002085839477643292</v>
       </c>
       <c r="S2" t="n">
         <v>0.4895936535371925</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.46029593789624124, 0.5188913691781438]</t>
+          <t>[0.4602988023484692, 0.5188885047259159]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>1.340000000000039</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5955555555555727</v>
+        <v>0.5459259259259418</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.084444444444505</v>
+        <v>2.134074074074136</v>
       </c>
     </row>
   </sheetData>
